--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_interface_test_ni_interface_id_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_interface_test_ni_interface_id_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:2af5cf4c-af77-45cb-a2ec-ce71d66d2fce"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:439d1215-2e34-4ccd-968b-c9a6db061c57"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
@@ -532,9 +532,9 @@
           &lt;/config&gt;
           &lt;interfaces&gt;
             &lt;interface&gt;
-              &lt;id&gt;1&lt;/id&gt;
+              &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
               &lt;config&gt;
-                &lt;id&gt;1&lt;/id&gt;
+                &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
               &lt;/config&gt;
             &lt;/interface&gt;
           &lt;/interfaces&gt;
@@ -544,8 +544,63 @@
   &lt;/edit-config&gt;</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:87332b6a-49f1-45c3-87e9-f34f2d9bbf6c"&gt;
+  &lt;ok/&gt;
+&lt;/rpc-reply&gt;
+ - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:b4cd09dd-6bb5-4ead-b58f-89d00b8a1bc9" nc-ext:flow-id="251"&gt;
+  &lt;ok/&gt;
+&lt;/rpc-reply&gt;
+</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:1ce16e55-b1a1-43bd-a0cb-5659cdbae542"&gt;
+  &lt;data&gt;
+    &lt;network-instances&gt;
+      &lt;network-instance&gt;
+        &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+        &lt;config&gt;
+          &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+          &lt;type&gt;oc-ni-types:L3VRF&lt;/type&gt;
+        &lt;/config&gt;
+        &lt;interfaces&gt;
+          &lt;interface&gt;
+            &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+            &lt;config&gt;
+              &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+              &lt;interface&gt;GigabitEthernet0/3/2&lt;/interface&gt;
+              &lt;subinterface&gt;0&lt;/subinterface&gt;
+            &lt;/config&gt;
+          &lt;/interface&gt;
+        &lt;/interfaces&gt;
+        &lt;protocols&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+        &lt;/protocols&gt;
+      &lt;/network-instance&gt;
+    &lt;/network-instances&gt;
+  &lt;/data&gt;
+&lt;/rpc-reply&gt;
+</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
     </row>
   </sheetData>
